--- a/intex.xlsx
+++ b/intex.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\@SURFER-GIRL\GS x MOM\Gabung code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\@SURFER-GIRL\GS x MOM\gabung 2code jadi 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DED10098-891F-48DF-9DC9-07594729421E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC480423-9945-4929-A3E6-CEEA6EE5588B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>original_id</t>
   </si>
@@ -33,41 +33,17 @@
     <t>replace_with</t>
   </si>
   <si>
-    <t>8ccf5f5e-e54f-43a8-af3f-cd2f367e417d</t>
+    <t>75b4dbd5-9412-462d-a494-b405fcba8eee</t>
   </si>
   <si>
-    <t>f9f2e321-bc03-4c99-a096-763cfabac523</t>
-  </si>
-  <si>
-    <t>6b05ae47-9fff-4ae7-9879-14c407528b01</t>
-  </si>
-  <si>
-    <t>3a7dbaa9-a03c-453e-a29c-f3d8dca44c9f</t>
-  </si>
-  <si>
-    <t>e155521f-c95a-42d5-a8df-60317649bb94</t>
-  </si>
-  <si>
-    <t>a3c7401a-d5eb-48b6-9e8d-0a6b4d3b12d6</t>
-  </si>
-  <si>
-    <t>0fc5e999-4cb9-4a89-afe5-41f2552d4290</t>
-  </si>
-  <si>
-    <t>74c879e7-2d4f-49d3-acac-05acd2238509</t>
-  </si>
-  <si>
-    <t>7010a0fe-c0a1-46bd-ad75-4f7b8d0c5ea9</t>
-  </si>
-  <si>
-    <t>7eee940a-efda-43a2-aaf2-712dbd976961</t>
+    <t>9c70603a-f220-4e1a-bccb-fef43fe9db11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -82,20 +58,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,14 +72,8 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -138,41 +96,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -301,278 +238,252 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.08984375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="44" style="4" customWidth="1"/>
-    <col min="3" max="3" width="15.7265625" customWidth="1"/>
+    <col min="1" max="1" width="44.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
     </row>
